--- a/participants.xlsx
+++ b/participants.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxsla\Desktop\Masaüstü\software_projects\gmail-api\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF887EDA-6090-4523-A1BB-B0E26E8D3EED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="532">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1377,15 +1386,6 @@
     <t>060220216</t>
   </si>
   <si>
-    <t>Ulaş KESKİN</t>
-  </si>
-  <si>
-    <t>Yüksek lisans tezimde xrf ile yapay zeka çalışıyorum. Bu sebeple python çalışmaya başladım. kursun bu süreçte bana destek olabileceğini düşündüğüm için katılmak istedim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gökçen TATAROĞLU </t>
-  </si>
-  <si>
     <t>tataroglugokcen@gmail.com</t>
   </si>
   <si>
@@ -1621,23 +1621,27 @@
   </si>
   <si>
     <t>FİZİK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gökçen Tataroğlu </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1648,7 +1652,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1664,45 +1668,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1892,28 +1895,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="12" width="18.88"/>
-    <col customWidth="1" min="13" max="13" width="51.38"/>
-    <col customWidth="1" min="14" max="20" width="18.88"/>
+    <col min="1" max="12" width="18.88671875" customWidth="1"/>
+    <col min="13" max="13" width="51.33203125" customWidth="1"/>
+    <col min="14" max="20" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1957,15 +1963,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44901.92573628473</v>
+        <v>44901.925736284727</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <v>5.07574252E9</v>
+        <v>5075742520</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -1980,30 +1986,30 @@
         <v>18</v>
       </c>
       <c r="H2" s="3">
-        <v>2.1740071686E10</v>
+        <v>21740071686</v>
       </c>
       <c r="I2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L2" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44901.93562451389</v>
+        <v>44901.935624513892</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="4">
-        <v>5.35326288E9</v>
+        <v>5353262880</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -2021,16 +2027,16 @@
         <v>25</v>
       </c>
       <c r="I3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>26</v>
@@ -2039,15 +2045,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44901.96249438658</v>
+        <v>44901.962494386578</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="4">
-        <v>5.383206545E9</v>
+        <v>5383206545</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -2062,25 +2068,25 @@
         <v>32</v>
       </c>
       <c r="H4" s="3">
-        <v>2.7572007022E10</v>
+        <v>27572007022</v>
       </c>
       <c r="I4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44901.97713712963</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="3">
-        <v>5.437111312E9</v>
+        <v>5437111312</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>35</v>
@@ -2103,19 +2109,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="3">
-        <v>2.2729349222E10</v>
+        <v>22729349222</v>
       </c>
       <c r="I5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>38</v>
@@ -2124,15 +2130,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44902.06196034722</v>
+        <v>44902.061960347222</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="4">
-        <v>5.55882346E9</v>
+        <v>5558823460</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
@@ -2147,19 +2153,19 @@
         <v>32</v>
       </c>
       <c r="H6" s="3">
-        <v>4.5730469086E10</v>
+        <v>45730469086</v>
       </c>
       <c r="I6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>45</v>
@@ -2168,7 +2174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44902.336911782404</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="4">
-        <v>5.414494669E9</v>
+        <v>5414494669</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>48</v>
@@ -2200,16 +2206,16 @@
         <v>52</v>
       </c>
       <c r="K7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44902.403015613425</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="3">
-        <v>5.462470998E9</v>
+        <v>5462470998</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>55</v>
@@ -2232,19 +2238,19 @@
         <v>58</v>
       </c>
       <c r="H8" s="3">
-        <v>2.437067687E10</v>
+        <v>24370676870</v>
       </c>
       <c r="I8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K8" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L8" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>60</v>
@@ -2253,15 +2259,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44902.41024028935</v>
+        <v>44902.410240289348</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="4">
-        <v>5.347808097E9</v>
+        <v>5347808097</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>63</v>
@@ -2276,19 +2282,19 @@
         <v>66</v>
       </c>
       <c r="H9" s="3">
-        <v>2.3797339238E10</v>
+        <v>23797339238</v>
       </c>
       <c r="I9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L9" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>45</v>
@@ -2297,15 +2303,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44902.41612833334</v>
+        <v>44902.416128333338</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="4">
-        <v>5.344205669E9</v>
+        <v>5344205669</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>69</v>
@@ -2320,19 +2326,19 @@
         <v>32</v>
       </c>
       <c r="H10" s="3">
-        <v>2.5289635088E10</v>
+        <v>25289635088</v>
       </c>
       <c r="I10" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>71</v>
@@ -2341,7 +2347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44902.46751938657</v>
       </c>
@@ -2364,19 +2370,19 @@
         <v>32</v>
       </c>
       <c r="H11" s="3">
-        <v>5.7571409008E10</v>
+        <v>57571409008</v>
       </c>
       <c r="I11" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L11" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>76</v>
@@ -2385,15 +2391,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44902.54367454861</v>
+        <v>44902.543674548608</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="3">
-        <v>5.340775016E9</v>
+        <v>5340775016</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>79</v>
@@ -2408,19 +2414,19 @@
         <v>32</v>
       </c>
       <c r="H12" s="3">
-        <v>1.1317265006E10</v>
+        <v>11317265006</v>
       </c>
       <c r="I12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>81</v>
@@ -2429,15 +2435,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44902.56244706019</v>
+        <v>44902.562447060191</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="4">
-        <v>5.511247686E9</v>
+        <v>5511247686</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>84</v>
@@ -2452,7 +2458,7 @@
         <v>87</v>
       </c>
       <c r="H13" s="3">
-        <v>1.50220088E8</v>
+        <v>150220088</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>51</v>
@@ -2461,10 +2467,10 @@
         <v>52</v>
       </c>
       <c r="K13" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>88</v>
@@ -2473,7 +2479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44902.56441097222</v>
       </c>
@@ -2481,7 +2487,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="4">
-        <v>5.388843858E9</v>
+        <v>5388843858</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
@@ -2496,30 +2502,30 @@
         <v>94</v>
       </c>
       <c r="H14" s="3">
-        <v>1.1308965632E10</v>
+        <v>11308965632</v>
       </c>
       <c r="I14" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L14" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44902.57208442129</v>
+        <v>44902.572084421292</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="4">
-        <v>5.54379953E9</v>
+        <v>5543799530</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>96</v>
@@ -2537,13 +2543,13 @@
         <v>19</v>
       </c>
       <c r="K15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44902.585707164355</v>
       </c>
@@ -2566,19 +2572,19 @@
         <v>32</v>
       </c>
       <c r="H16" s="3">
-        <v>2.4716043052E10</v>
+        <v>24716043052</v>
       </c>
       <c r="I16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>104</v>
@@ -2587,15 +2593,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44902.7698678125</v>
+        <v>44902.769867812502</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="4">
-        <v>5.468948687E9</v>
+        <v>5468948687</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>107</v>
@@ -2610,19 +2616,19 @@
         <v>87</v>
       </c>
       <c r="H17" s="3">
-        <v>3.6184088794E10</v>
+        <v>36184088794</v>
       </c>
       <c r="I17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>110</v>
@@ -2631,15 +2637,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44902.8402778125</v>
+        <v>44902.840277812502</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="3">
-        <v>5.051121001E9</v>
+        <v>5051121001</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>113</v>
@@ -2654,19 +2660,19 @@
         <v>116</v>
       </c>
       <c r="I18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K18" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L18" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44903.440121458334</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>117</v>
       </c>
       <c r="C19" s="3">
-        <v>5.432212544E9</v>
+        <v>5432212544</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>118</v>
@@ -2689,25 +2695,25 @@
         <v>32</v>
       </c>
       <c r="H19" s="3">
-        <v>3.0251270662E10</v>
+        <v>30251270662</v>
       </c>
       <c r="I19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44903.470868171295</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="3">
-        <v>5.435668876E9</v>
+        <v>5435668876</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>122</v>
@@ -2736,10 +2742,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L20" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>127</v>
@@ -2748,7 +2754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44903.493392766206</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>129</v>
       </c>
       <c r="C21" s="4">
-        <v>5.013362034E9</v>
+        <v>5013362034</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>130</v>
@@ -2771,19 +2777,19 @@
         <v>133</v>
       </c>
       <c r="H21" s="3">
-        <v>4.3723793446E10</v>
+        <v>43723793446</v>
       </c>
       <c r="I21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K21" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>134</v>
@@ -2792,7 +2798,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44904.519797939814</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>136</v>
       </c>
       <c r="C22" s="3">
-        <v>5.356448424E9</v>
+        <v>5356448424</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>137</v>
@@ -2818,19 +2824,19 @@
         <v>139</v>
       </c>
       <c r="I22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L22" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44904.520256805554</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>140</v>
       </c>
       <c r="C23" s="4">
-        <v>5.411609908E9</v>
+        <v>5411609908</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>141</v>
@@ -2856,16 +2862,16 @@
         <v>144</v>
       </c>
       <c r="I23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>145</v>
@@ -2874,7 +2880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44904.520618078706</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="3">
-        <v>5.306357101E9</v>
+        <v>5306357101</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>148</v>
@@ -2900,27 +2906,27 @@
         <v>152</v>
       </c>
       <c r="I24" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K24" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44904.52219587963</v>
+        <v>44904.522195879632</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C25" s="3">
-        <v>5.522153492E9</v>
+        <v>5522153492</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>154</v>
@@ -2938,27 +2944,27 @@
         <v>158</v>
       </c>
       <c r="I25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44904.52301775463</v>
+        <v>44904.523017754633</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C26" s="3">
-        <v>5.398483649E9</v>
+        <v>5398483649</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>160</v>
@@ -2976,16 +2982,16 @@
         <v>162</v>
       </c>
       <c r="I26" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>163</v>
@@ -2994,15 +3000,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44904.52495709491</v>
+        <v>44904.524957094909</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C27" s="3">
-        <v>5.398500083E9</v>
+        <v>5398500083</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>166</v>
@@ -3017,19 +3023,19 @@
         <v>167</v>
       </c>
       <c r="H27" s="3">
-        <v>1.50200324E8</v>
+        <v>150200324</v>
       </c>
       <c r="I27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K27" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L27" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>168</v>
@@ -3038,15 +3044,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44904.52841623843</v>
+        <v>44904.528416238427</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="3">
-        <v>5.393571765E9</v>
+        <v>5393571765</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>171</v>
@@ -3064,22 +3070,22 @@
         <v>174</v>
       </c>
       <c r="I28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44904.52974351852</v>
       </c>
@@ -3102,30 +3108,30 @@
         <v>180</v>
       </c>
       <c r="H29" s="3">
-        <v>5.15211001E8</v>
+        <v>515211001</v>
       </c>
       <c r="I29" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44904.53503171296</v>
+        <v>44904.535031712963</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C30" s="3">
-        <v>5.30430325E9</v>
+        <v>5304303250</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>182</v>
@@ -3149,10 +3155,10 @@
         <v>52</v>
       </c>
       <c r="K30" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>186</v>
@@ -3161,7 +3167,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44904.542127442124</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="3">
-        <v>5.437446292E9</v>
+        <v>5437446292</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>189</v>
@@ -3187,16 +3193,16 @@
         <v>192</v>
       </c>
       <c r="I31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K31" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>193</v>
@@ -3205,15 +3211,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44904.54462587963</v>
+        <v>44904.544625879629</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C32" s="3">
-        <v>5.310147371E9</v>
+        <v>5310147371</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>196</v>
@@ -3231,16 +3237,16 @@
         <v>199</v>
       </c>
       <c r="I32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K32" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L32" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>200</v>
@@ -3249,7 +3255,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44904.54828743056</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>202</v>
       </c>
       <c r="C33" s="3">
-        <v>5.416322899E9</v>
+        <v>5416322899</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>203</v>
@@ -3275,16 +3281,16 @@
         <v>206</v>
       </c>
       <c r="I33" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L33" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>207</v>
@@ -3293,15 +3299,15 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44904.54894555555</v>
+        <v>44904.548945555551</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C34" s="3">
-        <v>5.342142972E9</v>
+        <v>5342142972</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>210</v>
@@ -3325,10 +3331,10 @@
         <v>52</v>
       </c>
       <c r="K34" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L34" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>213</v>
@@ -3337,7 +3343,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44904.568487592594</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>215</v>
       </c>
       <c r="C35" s="4">
-        <v>5.364802892E9</v>
+        <v>5364802892</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>216</v>
@@ -3363,16 +3369,16 @@
         <v>218</v>
       </c>
       <c r="I35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>219</v>
@@ -3381,15 +3387,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44904.59356550926</v>
+        <v>44904.593565509262</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C36" s="3">
-        <v>5.446773799E9</v>
+        <v>5446773799</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>222</v>
@@ -3404,30 +3410,30 @@
         <v>87</v>
       </c>
       <c r="H36" s="3">
-        <v>1.50200701E8</v>
+        <v>150200701</v>
       </c>
       <c r="I36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K36" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44904.62212408565</v>
+        <v>44904.622124085647</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C37" s="3">
-        <v>5.425142335E9</v>
+        <v>5425142335</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>224</v>
@@ -3445,21 +3451,21 @@
         <v>19</v>
       </c>
       <c r="K37" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L37" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44904.6264840625</v>
+        <v>44904.626484062501</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="3">
-        <v>5.376616888E9</v>
+        <v>5376616888</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>228</v>
@@ -3474,25 +3480,25 @@
         <v>230</v>
       </c>
       <c r="H38" s="3">
-        <v>1.50220014E8</v>
+        <v>150220014</v>
       </c>
       <c r="I38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K38" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L38" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44904.650991400464</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>232</v>
       </c>
       <c r="C39" s="3">
-        <v>5.350720238E9</v>
+        <v>5350720238</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>233</v>
@@ -3515,16 +3521,16 @@
         <v>234</v>
       </c>
       <c r="I39" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K39" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L39" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>235</v>
@@ -3533,7 +3539,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44904.65118512731</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>237</v>
       </c>
       <c r="C40" s="3">
-        <v>5.442524471E9</v>
+        <v>5442524471</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>238</v>
@@ -3559,16 +3565,16 @@
         <v>240</v>
       </c>
       <c r="I40" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K40" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L40" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>241</v>
@@ -3577,7 +3583,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44904.724198703705</v>
       </c>
@@ -3585,7 +3591,7 @@
         <v>243</v>
       </c>
       <c r="C41" s="3">
-        <v>5.378520412E9</v>
+        <v>5378520412</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>244</v>
@@ -3600,16 +3606,16 @@
         <v>245</v>
       </c>
       <c r="I41" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K41" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L41" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>246</v>
@@ -3618,9 +3624,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44904.73086202546</v>
+        <v>44904.730862025463</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>248</v>
@@ -3647,10 +3653,10 @@
         <v>52</v>
       </c>
       <c r="K42" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L42" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>253</v>
@@ -3659,15 +3665,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44904.73259168981</v>
+        <v>44904.732591689812</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C43" s="4">
-        <v>5.340245089E9</v>
+        <v>5340245089</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>256</v>
@@ -3685,16 +3691,16 @@
         <v>258</v>
       </c>
       <c r="I43" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K43" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L43" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>259</v>
@@ -3703,15 +3709,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44904.76452009259</v>
+        <v>44904.764520092591</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C44" s="3">
-        <v>5.433709198E9</v>
+        <v>5433709198</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>262</v>
@@ -3729,30 +3735,30 @@
         <v>264</v>
       </c>
       <c r="I44" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K44" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L44" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44904.99491075231</v>
+        <v>44904.994910752313</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C45" s="3">
-        <v>5.439423479E9</v>
+        <v>5439423479</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>267</v>
@@ -3770,16 +3776,16 @@
         <v>270</v>
       </c>
       <c r="I45" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K45" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L45" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>271</v>
@@ -3788,15 +3794,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44905.12895113426</v>
+        <v>44905.128951134262</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C46" s="3">
-        <v>5.448339532E9</v>
+        <v>5448339532</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>274</v>
@@ -3811,19 +3817,19 @@
         <v>276</v>
       </c>
       <c r="H46" s="3">
-        <v>1.10200259E8</v>
+        <v>110200259</v>
       </c>
       <c r="I46" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K46" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>277</v>
@@ -3832,15 +3838,15 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44905.54140664352</v>
+        <v>44905.541406643519</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C47" s="3">
-        <v>5.527880461E9</v>
+        <v>5527880461</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>280</v>
@@ -3858,16 +3864,16 @@
         <v>283</v>
       </c>
       <c r="I47" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K47" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L47" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>284</v>
@@ -3876,7 +3882,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44905.69593037037</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>286</v>
       </c>
       <c r="C48" s="3">
-        <v>5.434316751E9</v>
+        <v>5434316751</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>287</v>
@@ -3908,24 +3914,24 @@
         <v>44</v>
       </c>
       <c r="K48" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44905.72318071759</v>
+        <v>44905.723180717592</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C49" s="3">
-        <v>5.325528276E9</v>
+        <v>5325528276</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>293</v>
@@ -3943,30 +3949,30 @@
         <v>296</v>
       </c>
       <c r="I49" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K49" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L49" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44905.92994326389</v>
+        <v>44905.929943263887</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C50" s="4">
-        <v>5.32792704E9</v>
+        <v>5327927040</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>299</v>
@@ -3981,19 +3987,19 @@
         <v>87</v>
       </c>
       <c r="H50" s="3">
-        <v>1.5592008044E10</v>
+        <v>15592008044</v>
       </c>
       <c r="I50" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K50" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L50" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>302</v>
@@ -4002,15 +4008,15 @@
         <v>303</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44905.93372980324</v>
+        <v>44905.933729803241</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C51" s="3">
-        <v>5.053882145E9</v>
+        <v>5053882145</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>305</v>
@@ -4025,19 +4031,19 @@
         <v>307</v>
       </c>
       <c r="H51" s="3">
-        <v>3.4673311378E10</v>
+        <v>34673311378</v>
       </c>
       <c r="I51" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K51" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>308</v>
@@ -4046,7 +4052,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44906.61369993056</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>310</v>
       </c>
       <c r="C52" s="3">
-        <v>5.426937558E9</v>
+        <v>5426937558</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>311</v>
@@ -4072,16 +4078,16 @@
         <v>313</v>
       </c>
       <c r="I52" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K52" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L52" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>314</v>
@@ -4090,7 +4096,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44906.621663750004</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>316</v>
       </c>
       <c r="C53" s="3">
-        <v>5.443549957E9</v>
+        <v>5443549957</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>317</v>
@@ -4116,22 +4122,22 @@
         <v>319</v>
       </c>
       <c r="I53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K53" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44906.628080891205</v>
       </c>
@@ -4139,7 +4145,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="3">
-        <v>5.462470998E9</v>
+        <v>5462470998</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>55</v>
@@ -4154,19 +4160,19 @@
         <v>58</v>
       </c>
       <c r="H54" s="3">
-        <v>2.437067687E10</v>
+        <v>24370676870</v>
       </c>
       <c r="I54" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K54" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L54" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>60</v>
@@ -4175,7 +4181,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44906.638143923614</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>322</v>
       </c>
       <c r="C55" s="3">
-        <v>5.539825089E9</v>
+        <v>5539825089</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>323</v>
@@ -4198,19 +4204,19 @@
         <v>325</v>
       </c>
       <c r="H55" s="3">
-        <v>1.10210102E8</v>
+        <v>110210102</v>
       </c>
       <c r="I55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>326</v>
@@ -4219,15 +4225,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44906.64480836806</v>
+        <v>44906.644808368059</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C56" s="3">
-        <v>5.538059646E9</v>
+        <v>5538059646</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>329</v>
@@ -4242,16 +4248,16 @@
         <v>331</v>
       </c>
       <c r="I56" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K56" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>332</v>
@@ -4260,15 +4266,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44906.6477459375</v>
+        <v>44906.647745937502</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C57" s="3">
-        <v>5.051564212E9</v>
+        <v>5051564212</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>335</v>
@@ -4286,16 +4292,16 @@
         <v>337</v>
       </c>
       <c r="I57" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K57" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>338</v>
@@ -4304,7 +4310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44906.96611976852</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>340</v>
       </c>
       <c r="C58" s="3">
-        <v>5.356965996E9</v>
+        <v>5356965996</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>341</v>
@@ -4330,16 +4336,16 @@
         <v>343</v>
       </c>
       <c r="I58" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K58" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L58" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>344</v>
@@ -4348,15 +4354,15 @@
         <v>345</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44907.41982084491</v>
+        <v>44907.419820844909</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C59" s="3">
-        <v>5.354958074E9</v>
+        <v>5354958074</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>347</v>
@@ -4374,19 +4380,19 @@
         <v>350</v>
       </c>
       <c r="I59" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K59" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L59" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44907.419974317134</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="3">
-        <v>5.531692536E9</v>
+        <v>5531692536</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>351</v>
@@ -4409,30 +4415,30 @@
         <v>32</v>
       </c>
       <c r="H60" s="3">
-        <v>5.7571409008E10</v>
+        <v>57571409008</v>
       </c>
       <c r="I60" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K60" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L60" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>44907.42410173611</v>
+        <v>44907.424101736113</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>352</v>
       </c>
       <c r="C61" s="3">
-        <v>5.544296632E9</v>
+        <v>5544296632</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>353</v>
@@ -4450,16 +4456,16 @@
         <v>356</v>
       </c>
       <c r="I61" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K61" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L61" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>357</v>
@@ -4468,7 +4474,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44907.424650879635</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>359</v>
       </c>
       <c r="C62" s="3">
-        <v>5.365978615E9</v>
+        <v>5365978615</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>360</v>
@@ -4494,16 +4500,16 @@
         <v>361</v>
       </c>
       <c r="I62" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K62" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L62" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>362</v>
@@ -4512,15 +4518,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>44907.44865186342</v>
+        <v>44907.448651863422</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C63" s="3">
-        <v>5.453579434E9</v>
+        <v>5453579434</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>365</v>
@@ -4538,30 +4544,30 @@
         <v>366</v>
       </c>
       <c r="I63" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K63" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L63" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>44907.44931668982</v>
+        <v>44907.449316689817</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C64" s="6">
-        <v>5.462470998E9</v>
+        <v>5462470998</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>55</v>
@@ -4576,19 +4582,19 @@
         <v>58</v>
       </c>
       <c r="H64" s="3">
-        <v>2.437067687E10</v>
+        <v>24370676870</v>
       </c>
       <c r="I64" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K64" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L64" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>367</v>
@@ -4597,7 +4603,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44907.45211820602</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>369</v>
       </c>
       <c r="C65" s="3">
-        <v>5.531121281E9</v>
+        <v>5531121281</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>370</v>
@@ -4620,7 +4626,7 @@
         <v>372</v>
       </c>
       <c r="H65" s="3">
-        <v>1.50220096E8</v>
+        <v>150220096</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>51</v>
@@ -4629,10 +4635,10 @@
         <v>19</v>
       </c>
       <c r="K65" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L65" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>373</v>
@@ -4641,7 +4647,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44907.530688865736</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>375</v>
       </c>
       <c r="C66" s="3">
-        <v>5.30430325E9</v>
+        <v>5304303250</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>182</v>
@@ -4673,10 +4679,10 @@
         <v>52</v>
       </c>
       <c r="K66" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L66" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>376</v>
@@ -4685,7 +4691,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44907.646546585645</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>378</v>
       </c>
       <c r="C67" s="3">
-        <v>5.388339876E9</v>
+        <v>5388339876</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>379</v>
@@ -4711,30 +4717,30 @@
         <v>381</v>
       </c>
       <c r="I67" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K67" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L67" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>44907.70409784722</v>
+        <v>44907.704097847221</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C68" s="3">
-        <v>5.432141914E9</v>
+        <v>5432141914</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>384</v>
@@ -4755,21 +4761,21 @@
         <v>19</v>
       </c>
       <c r="K68" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>44907.88044662037</v>
+        <v>44907.880446620373</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>387</v>
       </c>
       <c r="C69" s="3">
-        <v>5.436256218E9</v>
+        <v>5436256218</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>388</v>
@@ -4793,21 +4799,21 @@
         <v>59</v>
       </c>
       <c r="K69" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>44908.03634377314</v>
+        <v>44908.036343773143</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>392</v>
       </c>
       <c r="C70" s="3">
-        <v>5.445535052E9</v>
+        <v>5445535052</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>393</v>
@@ -4822,19 +4828,19 @@
         <v>395</v>
       </c>
       <c r="H70" s="3">
-        <v>1.40210014E8</v>
+        <v>140210014</v>
       </c>
       <c r="I70" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K70" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L70" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>396</v>
@@ -4843,7 +4849,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44908.567836898146</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>398</v>
       </c>
       <c r="C71" s="3">
-        <v>5.059827978E9</v>
+        <v>5059827978</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>399</v>
@@ -4869,22 +4875,22 @@
         <v>400</v>
       </c>
       <c r="I71" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K71" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L71" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44908.672199085646</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>402</v>
       </c>
       <c r="C72" s="3">
-        <v>5.362293309E9</v>
+        <v>5362293309</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>403</v>
@@ -4907,16 +4913,16 @@
         <v>405</v>
       </c>
       <c r="H72" s="3">
-        <v>5.0419126E8</v>
+        <v>504191260</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K72" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L72" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>406</v>
@@ -4925,15 +4931,15 @@
         <v>407</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>44908.70861239583</v>
+        <v>44908.708612395829</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C73" s="3">
-        <v>5.464665219E9</v>
+        <v>5464665219</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>250</v>
@@ -4954,21 +4960,21 @@
         <v>411</v>
       </c>
       <c r="K73" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L73" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>44908.70921453704</v>
+        <v>44908.709214537041</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C74" s="3">
-        <v>5.393571765E9</v>
+        <v>5393571765</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>171</v>
@@ -4986,30 +4992,30 @@
         <v>174</v>
       </c>
       <c r="I74" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K74" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L74" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>44908.71861703704</v>
+        <v>44908.718617037041</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>414</v>
       </c>
       <c r="C75" s="3">
-        <v>5.434263788E9</v>
+        <v>5434263788</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>415</v>
@@ -5027,16 +5033,16 @@
         <v>417</v>
       </c>
       <c r="I75" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K75" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L75" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>418</v>
@@ -5045,15 +5051,15 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>44908.71931018519</v>
+        <v>44908.719310185188</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C76" s="3">
-        <v>5.315177231E9</v>
+        <v>5315177231</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>421</v>
@@ -5071,16 +5077,16 @@
         <v>422</v>
       </c>
       <c r="I76" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K76" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L76" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>423</v>
@@ -5089,15 +5095,15 @@
         <v>424</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>44908.73509637731</v>
+        <v>44908.735096377313</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>425</v>
       </c>
       <c r="C77" s="3">
-        <v>5.061390647E9</v>
+        <v>5061390647</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>426</v>
@@ -5115,16 +5121,16 @@
         <v>429</v>
       </c>
       <c r="I77" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K77" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L77" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>430</v>
@@ -5133,7 +5139,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44908.77016453704</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>432</v>
       </c>
       <c r="C78" s="3">
-        <v>5.060929065E9</v>
+        <v>5060929065</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>433</v>
@@ -5165,24 +5171,24 @@
         <v>19</v>
       </c>
       <c r="K78" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>44908.77583844907</v>
+        <v>44908.775838449073</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>438</v>
       </c>
       <c r="C79" s="3">
-        <v>5.462470998E9</v>
+        <v>5462470998</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>55</v>
@@ -5197,19 +5203,19 @@
         <v>58</v>
       </c>
       <c r="H79" s="3">
-        <v>2.437067687E10</v>
+        <v>24370676870</v>
       </c>
       <c r="I79" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K79" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L79" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>367</v>
@@ -5218,15 +5224,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>44908.77814549769</v>
+        <v>44908.778145497687</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C80" s="3">
-        <v>5.531692536E9</v>
+        <v>5531692536</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>351</v>
@@ -5241,30 +5247,30 @@
         <v>32</v>
       </c>
       <c r="H80" s="3">
-        <v>5.7571409008E10</v>
+        <v>57571409008</v>
       </c>
       <c r="I80" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K80" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L80" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>44908.78735706018</v>
+        <v>44908.787357060181</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>441</v>
       </c>
       <c r="C81" s="3">
-        <v>5.435786353E9</v>
+        <v>5435786353</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>442</v>
@@ -5282,16 +5288,16 @@
         <v>444</v>
       </c>
       <c r="I81" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K81" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L81" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>445</v>
@@ -5300,15 +5306,15 @@
         <v>446</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>44908.78874358797</v>
+        <v>44908.788743587967</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>447</v>
       </c>
       <c r="C82" s="3">
-        <v>5.539486653E9</v>
+        <v>5539486653</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>448</v>
@@ -5332,537 +5338,540 @@
         <v>44</v>
       </c>
       <c r="K82" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L82" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>44908.82739041667</v>
+        <v>44908.877322500004</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5316926122</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C83" s="3">
-        <v>5.383206545E9</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E83" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="H83" s="3">
-        <v>2.7572007022E10</v>
+        <v>509211107</v>
       </c>
       <c r="I83" s="3">
-        <v>2.0</v>
+        <v>4</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K83" s="3">
-        <v>5.0</v>
+        <v>7</v>
       </c>
       <c r="L83" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>44908.877322500004</v>
+        <v>44908.963067129633</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C84" s="3">
-        <v>5.316926122E9</v>
+        <v>5078707876</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>455</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>103</v>
+        <v>456</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H84" s="3">
-        <v>5.09211107E8</v>
+        <v>457</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="I84" s="3">
-        <v>4.0</v>
+        <v>3</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K84" s="3">
-        <v>7.0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>4</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>44908.96306712963</v>
+        <v>44909.022537291668</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C85" s="3">
-        <v>5.078707876E9</v>
+        <v>5374912890</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>459</v>
+        <v>251</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>460</v>
+        <v>318</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I85" s="3">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K85" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="L85" s="3">
-        <v>4.0</v>
+        <v>5</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>44909.02253729167</v>
+        <v>44909.022964293981</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C86" s="3">
-        <v>5.37491289E9</v>
+        <v>5533258064</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>251</v>
+        <v>466</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>465</v>
+        <v>211</v>
       </c>
       <c r="I86" s="3">
-        <v>2.0</v>
+        <v>4</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K86" s="3">
-        <v>2.0</v>
+        <v>7</v>
       </c>
       <c r="L86" s="3">
-        <v>5.0</v>
+        <v>6</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>44909.02296429398</v>
+        <v>44909.807261863425</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C87" s="3">
-        <v>5.533258064E9</v>
+        <v>5077933329</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>114</v>
+        <v>470</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>211</v>
+        <v>472</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="I87" s="3">
-        <v>4.0</v>
+        <v>3</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K87" s="3">
-        <v>7.0</v>
+        <v>3</v>
       </c>
       <c r="L87" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>6</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>44909.807261863425</v>
+        <v>44909.874269432868</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C88" s="3">
-        <v>5.077933329E9</v>
+        <v>5518399742</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>473</v>
+        <v>149</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>474</v>
+        <v>197</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>475</v>
+        <v>295</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I88" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K88" s="3">
-        <v>3.0</v>
+        <v>4</v>
       </c>
       <c r="L88" s="3">
-        <v>6.0</v>
+        <v>6</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>44909.87426943287</v>
+        <v>44910.522011435183</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C89" s="3">
-        <v>5.518399742E9</v>
+        <v>5433741063</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>197</v>
+        <v>481</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>295</v>
+        <v>481</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I89" s="3">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K89" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L89" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N89" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>44910.848144814816</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C90" s="3">
+        <v>5050183755</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90" s="3">
+        <v>8</v>
+      </c>
+      <c r="L90" s="3">
+        <v>3</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>44910.903545451394</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C91" s="3">
+        <v>5459074930</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H91" s="3">
+        <v>31718161806</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="3">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>44911.710843067129</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C92" s="3">
+        <v>5549036535</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2">
-        <v>44910.52201143518</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C90" s="3">
-        <v>5.433741063E9</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="I90" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K90" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="L90" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2">
-        <v>44910.848144814816</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C91" s="3">
-        <v>5.050183755E9</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="I91" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K91" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2">
-        <v>44910.903545451394</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C92" s="3">
-        <v>5.45907493E9</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="G92" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="H92" s="3">
-        <v>3.1718161806E10</v>
+        <v>498</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="I92" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K92" s="3">
-        <v>5.0</v>
+        <v>3</v>
       </c>
       <c r="L92" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>44911.71084306713</v>
+        <v>44911.775405219909</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C93" s="3">
-        <v>5.549036535E9</v>
+        <v>5459459256</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I93" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K93" s="3">
-        <v>3.0</v>
+        <v>6</v>
       </c>
       <c r="L93" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>4</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>44911.77540521991</v>
+        <v>44911.917845636577</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C94" s="3">
-        <v>5.459459256E9</v>
+        <v>5319374636</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="I94" s="3">
-        <v>2.0</v>
+        <v>510</v>
+      </c>
+      <c r="H94" s="3">
+        <v>702221008</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K94" s="3">
-        <v>6.0</v>
+        <v>4</v>
       </c>
       <c r="L94" s="3">
-        <v>4.0</v>
+        <v>6</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>44911.91784563658</v>
+        <v>44915.045789143522</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C95" s="3">
-        <v>5.319374636E9</v>
+        <v>5357775716</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>49</v>
+        <v>515</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H95" s="3">
-        <v>7.02221008E8</v>
+        <v>51532023708</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>51</v>
@@ -5871,139 +5880,95 @@
         <v>19</v>
       </c>
       <c r="K95" s="3">
-        <v>4.0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>44915.04578914352</v>
+        <v>44932.063143865744</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C96" s="3">
-        <v>5.357775716E9</v>
+        <v>5053929506</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>518</v>
+        <v>22</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="H96" s="3">
-        <v>5.1532023708E10</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>51</v>
+        <v>205</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I96" s="3">
+        <v>4</v>
       </c>
       <c r="J96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96" s="3">
+        <v>7</v>
+      </c>
+      <c r="L96" s="3">
+        <v>7</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>44934.70106929398</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H97" s="3">
+        <v>10222588682</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2">
-        <v>44932.063143865744</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C97" s="3">
-        <v>5.053929506E9</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I97" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="K97" s="3">
-        <v>7.0</v>
+        <v>2</v>
       </c>
       <c r="L97" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2">
-        <v>44934.70106929398</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H98" s="3">
-        <v>1.0222588682E10</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K98" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="L98" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>